--- a/FuzzyMsc/App_Data/Tmp/FileUploads/yapay-veriler-1.xlsx
+++ b/FuzzyMsc/App_Data/Tmp/FileUploads/yapay-veriler-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REZISTIVITE" sheetId="1" r:id="rId1"/>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,26 +534,24 @@
         <v>1037.5</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>7.5</v>
+        <v>17.5</v>
       </c>
       <c r="H2" s="1">
         <v>40</v>
       </c>
       <c r="I2" s="1">
-        <v>17.5</v>
+        <v>28.5</v>
       </c>
       <c r="J2" s="1">
         <v>80</v>
       </c>
-      <c r="K2" s="1">
-        <v>28.5</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1">
         <v>300</v>
       </c>
@@ -570,26 +568,24 @@
         <v>1038</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1">
         <v>45</v>
       </c>
       <c r="I3" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1">
         <v>90</v>
       </c>
-      <c r="K3" s="1">
-        <v>31</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1">
         <v>280</v>
       </c>
@@ -606,26 +602,24 @@
         <v>1037.5</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="H4" s="1">
         <v>40</v>
       </c>
       <c r="I4" s="1">
-        <v>18.5</v>
+        <v>28.5</v>
       </c>
       <c r="J4" s="1">
         <v>85</v>
       </c>
-      <c r="K4" s="1">
-        <v>28.5</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1">
         <v>320</v>
       </c>
@@ -642,26 +636,24 @@
         <v>1037.5</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F5" s="1">
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>8.5</v>
+        <v>20.5</v>
       </c>
       <c r="H5" s="1">
         <v>37</v>
       </c>
       <c r="I5" s="1">
-        <v>20.5</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1">
         <v>75</v>
       </c>
-      <c r="K5" s="1">
-        <v>29</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1">
         <v>340</v>
       </c>
@@ -678,26 +670,24 @@
         <v>1037.5</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
         <v>11</v>
       </c>
       <c r="G6" s="1">
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="H6" s="1">
         <v>42</v>
       </c>
       <c r="I6" s="1">
-        <v>18.5</v>
+        <v>33.5</v>
       </c>
       <c r="J6" s="1">
         <v>88</v>
       </c>
-      <c r="K6" s="1">
-        <v>33.5</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1">
         <v>350</v>
       </c>
@@ -713,7 +703,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="N2" sqref="N2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +768,7 @@
         <v>1036</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F2" s="1">
         <v>500</v>
@@ -787,7 +777,7 @@
         <v>180</v>
       </c>
       <c r="H2" s="1">
-        <v>8.5</v>
+        <v>18.5</v>
       </c>
       <c r="I2" s="1">
         <v>1300</v>
@@ -796,7 +786,7 @@
         <v>300</v>
       </c>
       <c r="K2" s="1">
-        <v>18.5</v>
+        <v>27.5</v>
       </c>
       <c r="L2" s="1">
         <v>1800</v>
@@ -804,9 +794,7 @@
       <c r="M2" s="1">
         <v>450</v>
       </c>
-      <c r="N2" s="1">
-        <v>27.5</v>
-      </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1">
         <v>2500</v>
       </c>
@@ -826,7 +814,7 @@
         <v>1037.5</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F3" s="1">
         <v>550</v>
@@ -835,7 +823,7 @@
         <v>200</v>
       </c>
       <c r="H3" s="1">
-        <v>8.5</v>
+        <v>19.5</v>
       </c>
       <c r="I3" s="1">
         <v>1400</v>
@@ -844,7 +832,7 @@
         <v>350</v>
       </c>
       <c r="K3" s="1">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1">
         <v>1700</v>
@@ -852,9 +840,7 @@
       <c r="M3" s="1">
         <v>400</v>
       </c>
-      <c r="N3" s="1">
-        <v>28</v>
-      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1">
         <v>2700</v>
       </c>
@@ -874,7 +860,7 @@
         <v>1037.5</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="F4" s="1">
         <v>600</v>
@@ -883,7 +869,7 @@
         <v>220</v>
       </c>
       <c r="H4" s="1">
-        <v>9.5</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1">
         <v>1450</v>
@@ -892,7 +878,7 @@
         <v>330</v>
       </c>
       <c r="K4" s="1">
-        <v>20</v>
+        <v>29.5</v>
       </c>
       <c r="L4" s="1">
         <v>1750</v>
@@ -900,9 +886,7 @@
       <c r="M4" s="1">
         <v>450</v>
       </c>
-      <c r="N4" s="1">
-        <v>29.5</v>
-      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1">
         <v>2600</v>
       </c>
@@ -922,7 +906,7 @@
         <v>1037.5</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <v>580</v>
@@ -931,7 +915,7 @@
         <v>210</v>
       </c>
       <c r="H5" s="1">
-        <v>9</v>
+        <v>19.8</v>
       </c>
       <c r="I5" s="1">
         <v>1500</v>
@@ -940,7 +924,7 @@
         <v>350</v>
       </c>
       <c r="K5" s="1">
-        <v>19.8</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1">
         <v>1800</v>
@@ -948,9 +932,7 @@
       <c r="M5" s="1">
         <v>500</v>
       </c>
-      <c r="N5" s="1">
-        <v>27</v>
-      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1">
         <v>2650</v>
       </c>
@@ -970,7 +952,7 @@
         <v>1037</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F6" s="1">
         <v>520</v>
@@ -979,7 +961,7 @@
         <v>190</v>
       </c>
       <c r="H6" s="1">
-        <v>7.5</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1">
         <v>1350</v>
@@ -988,7 +970,7 @@
         <v>330</v>
       </c>
       <c r="K6" s="1">
-        <v>20</v>
+        <v>30.5</v>
       </c>
       <c r="L6" s="1">
         <v>1750</v>
@@ -996,9 +978,7 @@
       <c r="M6" s="1">
         <v>450</v>
       </c>
-      <c r="N6" s="1">
-        <v>30.5</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1">
         <v>2700</v>
       </c>
@@ -1018,7 +998,7 @@
         <v>1036.25</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F7" s="1">
         <v>500</v>
@@ -1027,7 +1007,7 @@
         <v>180</v>
       </c>
       <c r="H7" s="1">
-        <v>7.5</v>
+        <v>18.75</v>
       </c>
       <c r="I7" s="1">
         <v>1400</v>
@@ -1036,7 +1016,7 @@
         <v>340</v>
       </c>
       <c r="K7" s="1">
-        <v>18.75</v>
+        <v>27</v>
       </c>
       <c r="L7" s="1">
         <v>1700</v>
@@ -1044,9 +1024,7 @@
       <c r="M7" s="1">
         <v>400</v>
       </c>
-      <c r="N7" s="1">
-        <v>27</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1">
         <v>2800</v>
       </c>
@@ -1064,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
